--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>716790.7128712611</v>
+        <v>714272.9683894477</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7765049.281621782</v>
+        <v>5301029.811029742</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6187346.756951106</v>
+        <v>3772361.27382385</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7433871.84206392</v>
+        <v>8492226.400997642</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>24.72570346211879</v>
       </c>
       <c r="C2" t="n">
         <v>406.0233447798626</v>
@@ -668,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>396.6425927105685</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>266.2723283900668</v>
       </c>
       <c r="W4" t="n">
-        <v>153.2405232046422</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -896,22 +898,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>62.48252025343756</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>169.0239387266749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1060,19 +1062,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>214.9288021876725</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>27.35334490128912</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>388.3430365919147</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>113.9333158029248</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>65.42520756919185</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>228.2601210751802</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
@@ -1354,10 +1356,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,22 +1372,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>127.1229338954421</v>
+        <v>170.7879507721958</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1528,25 +1530,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>27.77250173713465</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,22 +1612,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>378.9769832968749</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>40.39502321397722</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U16" t="n">
         <v>279.9701659793371</v>
@@ -1828,10 +1830,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059085</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1850,13 +1852,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>36.61269645884417</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -2002,22 +2004,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>74.76511741884258</v>
       </c>
       <c r="D19" t="n">
-        <v>153.0251390105128</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -2084,7 +2086,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>43.42340976889702</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
@@ -2099,7 +2101,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
@@ -2138,7 +2140,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>37.78331767565417</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -2239,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>109.6169299062875</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>5.983606865188615</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2333,10 +2335,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>84.73179601342665</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>65.4838304246407</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>137.8797272855246</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
@@ -2542,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2560,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>43.42340976889702</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
@@ -2573,7 +2575,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>88.08110241150609</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
         <v>219.9844192126098</v>
@@ -2618,7 +2620,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
@@ -2722,7 +2724,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>33.30391621068068</v>
       </c>
       <c r="G28" t="n">
         <v>165.577887163712</v>
@@ -2773,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2807,7 +2809,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2846,10 +2848,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>205.293418382671</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>243.833185100996</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -2947,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3007,16 +3009,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>80.97468256587179</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="32">
@@ -3038,16 +3040,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>282.1353944293379</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3187,7 +3189,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>22.16731931190257</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -3196,13 +3198,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>106.9706214097036</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3275,13 +3277,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>367.6236394854355</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3424,22 +3426,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>37.54550815630356</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3481,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>106.9706214097034</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
@@ -3509,10 +3511,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>384.5327953590509</v>
       </c>
       <c r="G38" t="n">
         <v>404.6410012660961</v>
@@ -3554,10 +3556,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>31.99018014062471</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3667,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>145.0002589579186</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>271.0770354214525</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3757,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -3791,10 +3793,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>31.99018014062471</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3806,7 +3808,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>262.2425928248792</v>
       </c>
     </row>
     <row r="42">
@@ -3898,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>140.548818152191</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
@@ -3907,16 +3909,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,16 +3951,16 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>54.72290806889306</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3977,25 +3979,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>191.9284811707548</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>59.82422708687632</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>56.00612664553199</v>
+        <v>132.9957010382506</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>184.5278504388888</v>
@@ -4192,16 +4194,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1678.033101815613</v>
+        <v>1662.342150385648</v>
       </c>
       <c r="C2" t="n">
-        <v>1267.908511128883</v>
+        <v>1252.217559698918</v>
       </c>
       <c r="D2" t="n">
-        <v>863.4445812219433</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="E2" t="n">
-        <v>863.4445812219433</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="F2" t="n">
-        <v>442.4141691756308</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
@@ -4337,19 +4339,19 @@
         <v>1075.450954962253</v>
       </c>
       <c r="M2" t="n">
-        <v>1075.450954962253</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="N2" t="n">
-        <v>1075.450954962253</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O2" t="n">
-        <v>1592.293889628578</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P2" t="n">
-        <v>1767.09327468481</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
@@ -4373,7 +4375,7 @@
         <v>2088.254281480102</v>
       </c>
       <c r="Y2" t="n">
-        <v>2088.254281480102</v>
+        <v>1687.317608428192</v>
       </c>
     </row>
     <row r="3">
@@ -4401,10 +4403,10 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J3" t="n">
         <v>234.5779431922353</v>
@@ -4413,19 +4415,19 @@
         <v>690.384199457534</v>
       </c>
       <c r="L3" t="n">
-        <v>1207.227134123859</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M3" t="n">
-        <v>1541.851827451147</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N3" t="n">
-        <v>2058.694762117472</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O3" t="n">
-        <v>2058.694762117472</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4443,7 +4445,7 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
         <v>1196.626901649</v>
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>209.0154767040586</v>
+        <v>372.3531027449756</v>
       </c>
       <c r="C4" t="n">
-        <v>209.0154767040586</v>
+        <v>201.259730306692</v>
       </c>
       <c r="D4" t="n">
-        <v>209.0154767040586</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>209.0154767040586</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>209.0154767040586</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
         <v>41.76508562960205</v>
@@ -4513,25 +4515,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1145.223475107064</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>862.4253276531883</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V4" t="n">
-        <v>588.5395825927103</v>
+        <v>1302.202034381698</v>
       </c>
       <c r="W4" t="n">
-        <v>433.7511753152939</v>
+        <v>1023.132369890572</v>
       </c>
       <c r="X4" t="n">
-        <v>433.7511753152939</v>
+        <v>784.7885077502552</v>
       </c>
       <c r="Y4" t="n">
-        <v>209.0154767040586</v>
+        <v>560.0528091390199</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>773.7039950481965</v>
+        <v>1265.081890330439</v>
       </c>
       <c r="C5" t="n">
-        <v>773.7039950481965</v>
+        <v>854.9572996437093</v>
       </c>
       <c r="D5" t="n">
-        <v>773.7039950481965</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="E5" t="n">
-        <v>773.7039950481965</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="F5" t="n">
-        <v>352.673583001884</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G5" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
         <v>41.76508562960205</v>
@@ -4568,25 +4570,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>216.5644706858345</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L5" t="n">
-        <v>733.4074053521598</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M5" t="n">
-        <v>1250.250340018485</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N5" t="n">
-        <v>1767.09327468481</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O5" t="n">
-        <v>1767.09327468481</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P5" t="n">
-        <v>1767.09327468481</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4598,19 +4600,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>2025.140624658448</v>
       </c>
       <c r="V5" t="n">
-        <v>1738.416726816583</v>
+        <v>1675.303069994929</v>
       </c>
       <c r="W5" t="n">
-        <v>1354.656425951752</v>
+        <v>1675.303069994929</v>
       </c>
       <c r="X5" t="n">
-        <v>1354.656425951752</v>
+        <v>1675.303069994929</v>
       </c>
       <c r="Y5" t="n">
-        <v>1183.925174712686</v>
+        <v>1675.303069994929</v>
       </c>
     </row>
     <row r="6">
@@ -4647,25 +4649,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L6" t="n">
-        <v>558.6080202959273</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="M6" t="n">
-        <v>1075.450954962253</v>
+        <v>537.7254774811262</v>
       </c>
       <c r="N6" t="n">
-        <v>1541.851827451147</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="O6" t="n">
-        <v>2058.694762117472</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P6" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q6" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1131.098935930739</v>
+        <v>372.3531027449756</v>
       </c>
       <c r="C7" t="n">
-        <v>960.0055634924552</v>
+        <v>201.259730306692</v>
       </c>
       <c r="D7" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4747,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T7" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U7" t="n">
-        <v>1571.163982250452</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V7" t="n">
-        <v>1571.163982250452</v>
+        <v>560.0528091390199</v>
       </c>
       <c r="W7" t="n">
-        <v>1571.163982250452</v>
+        <v>560.0528091390199</v>
       </c>
       <c r="X7" t="n">
-        <v>1543.534340936018</v>
+        <v>560.0528091390199</v>
       </c>
       <c r="Y7" t="n">
-        <v>1318.798642324783</v>
+        <v>560.0528091390199</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1695.988587952916</v>
+        <v>1740.939116293115</v>
       </c>
       <c r="C8" t="n">
-        <v>1285.863997266186</v>
+        <v>1330.814525606385</v>
       </c>
       <c r="D8" t="n">
-        <v>1285.863997266186</v>
+        <v>926.3505956994459</v>
       </c>
       <c r="E8" t="n">
-        <v>871.5237817830823</v>
+        <v>512.0103802163426</v>
       </c>
       <c r="F8" t="n">
-        <v>450.4933697367699</v>
+        <v>396.9262228396509</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>396.9262228396509</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736888</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736888</v>
       </c>
       <c r="J8" t="n">
-        <v>295.9505570973564</v>
+        <v>86.01772546736888</v>
       </c>
       <c r="K8" t="n">
-        <v>295.9505570973564</v>
+        <v>524.2900591047203</v>
       </c>
       <c r="L8" t="n">
-        <v>295.9505570973564</v>
+        <v>1236.881458916958</v>
       </c>
       <c r="M8" t="n">
-        <v>733.4074053521598</v>
+        <v>2013.200049908712</v>
       </c>
       <c r="N8" t="n">
-        <v>733.4074053521598</v>
+        <v>2766.38106654733</v>
       </c>
       <c r="O8" t="n">
-        <v>1250.250340018485</v>
+        <v>3410.011922964435</v>
       </c>
       <c r="P8" t="n">
-        <v>1767.09327468481</v>
+        <v>3939.168620883587</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>4260.329627678879</v>
       </c>
       <c r="R8" t="n">
-        <v>2088.254281480102</v>
+        <v>4300.886273368444</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>4165.605198162544</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>3943.398714109403</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>3686.338222368913</v>
       </c>
       <c r="V8" t="n">
-        <v>2088.254281480102</v>
+        <v>3336.500667705394</v>
       </c>
       <c r="W8" t="n">
-        <v>2088.254281480102</v>
+        <v>2952.740366840562</v>
       </c>
       <c r="X8" t="n">
-        <v>2088.254281480102</v>
+        <v>2552.096969009515</v>
       </c>
       <c r="Y8" t="n">
-        <v>2088.254281480102</v>
+        <v>2151.160295957605</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161365</v>
+        <v>764.8485673539033</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650821</v>
+        <v>630.8534961028489</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844746</v>
+        <v>513.9563383222413</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768026</v>
+        <v>393.4635223145693</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593071</v>
+        <v>284.5036424970739</v>
       </c>
       <c r="G9" t="n">
-        <v>133.2608899736458</v>
+        <v>177.5135298114126</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936187</v>
+        <v>106.7663168471287</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736888</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736888</v>
       </c>
       <c r="K9" t="n">
-        <v>497.5713418949007</v>
+        <v>86.01772546736888</v>
       </c>
       <c r="L9" t="n">
-        <v>1014.414276561226</v>
+        <v>86.01772546736888</v>
       </c>
       <c r="M9" t="n">
-        <v>1014.414276561226</v>
+        <v>928.9948061619356</v>
       </c>
       <c r="N9" t="n">
-        <v>1221.566882129793</v>
+        <v>1802.652898273554</v>
       </c>
       <c r="O9" t="n">
-        <v>1221.566882129793</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="P9" t="n">
-        <v>1738.409816796118</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="R9" t="n">
-        <v>2088.254281480102</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>1980.264271594411</v>
+        <v>2024.516911432178</v>
       </c>
       <c r="T9" t="n">
-        <v>1820.922407781419</v>
+        <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1623.571596919638</v>
+        <v>1667.824236757405</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912671</v>
+        <v>1454.112709750439</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649</v>
+        <v>1240.879541486767</v>
       </c>
       <c r="X9" t="n">
-        <v>1020.300919787893</v>
+        <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517231</v>
+        <v>905.1515999894899</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.76508562960205</v>
+        <v>268.4498396147517</v>
       </c>
       <c r="C10" t="n">
-        <v>41.76508562960205</v>
+        <v>268.4498396147517</v>
       </c>
       <c r="D10" t="n">
-        <v>41.76508562960205</v>
+        <v>268.4498396147517</v>
       </c>
       <c r="E10" t="n">
-        <v>41.76508562960205</v>
+        <v>268.4498396147517</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960205</v>
+        <v>268.4498396147517</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>268.4498396147517</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>202.3637713630427</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736888</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481257</v>
+        <v>100.1002748725794</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570506</v>
+        <v>254.6526025948174</v>
       </c>
       <c r="L10" t="n">
-        <v>470.2970630371111</v>
+        <v>514.549702874878</v>
       </c>
       <c r="M10" t="n">
-        <v>759.5611194776044</v>
+        <v>803.8137593153713</v>
       </c>
       <c r="N10" t="n">
-        <v>1040.399901871855</v>
+        <v>1084.652541709622</v>
       </c>
       <c r="O10" t="n">
-        <v>1299.960512198329</v>
+        <v>1344.213152036096</v>
       </c>
       <c r="P10" t="n">
-        <v>1505.635952447941</v>
+        <v>1549.888592285708</v>
       </c>
       <c r="Q10" t="n">
-        <v>1571.163982250452</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1571.163982250452</v>
+        <v>1530.143903763619</v>
       </c>
       <c r="S10" t="n">
-        <v>1571.163982250452</v>
+        <v>1343.752135643529</v>
       </c>
       <c r="T10" t="n">
-        <v>1340.598203386633</v>
+        <v>1104.203396620231</v>
       </c>
       <c r="U10" t="n">
-        <v>1057.800055932758</v>
+        <v>821.4052491663554</v>
       </c>
       <c r="V10" t="n">
-        <v>783.9143108722797</v>
+        <v>547.5195041058773</v>
       </c>
       <c r="W10" t="n">
-        <v>504.844646381154</v>
+        <v>268.4498396147517</v>
       </c>
       <c r="X10" t="n">
-        <v>266.5007842408373</v>
+        <v>268.4498396147517</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.76508562960205</v>
+        <v>268.4498396147517</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1165.865797015991</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C11" t="n">
-        <v>1165.865797015991</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D11" t="n">
-        <v>761.4018671090519</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E11" t="n">
-        <v>761.4018671090519</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F11" t="n">
-        <v>761.4018671090519</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G11" t="n">
-        <v>352.673583001884</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H11" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I11" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>41.76508562960205</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>558.6080202959273</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
-        <v>1075.450954962253</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M11" t="n">
-        <v>1250.250340018485</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N11" t="n">
-        <v>1767.09327468481</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>1767.09327468481</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
-        <v>1767.09327468481</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>2088.254281480102</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>2088.254281480102</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>1959.847277545312</v>
+        <v>4354.390727737164</v>
       </c>
       <c r="U11" t="n">
-        <v>1959.847277545312</v>
+        <v>4097.330235996674</v>
       </c>
       <c r="V11" t="n">
-        <v>1959.847277545312</v>
+        <v>3747.492681333154</v>
       </c>
       <c r="W11" t="n">
-        <v>1576.086976680481</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X11" t="n">
-        <v>1576.086976680481</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y11" t="n">
-        <v>1576.086976680481</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>720.5959275161365</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>586.6008562650821</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>469.7036984844746</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>349.2108824768026</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>240.2510026593071</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>133.2608899736458</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936187</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>497.5713418949007</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L12" t="n">
-        <v>1014.414276561226</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M12" t="n">
-        <v>1054.568412147451</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N12" t="n">
-        <v>1054.568412147451</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O12" t="n">
-        <v>1571.411346813777</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P12" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q12" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>1980.264271594411</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>1820.922407781419</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>1623.571596919638</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>1409.860069912671</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>1196.626901649</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>1020.300919787893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>860.8989601517231</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1131.098935930739</v>
+        <v>121.2967297483346</v>
       </c>
       <c r="C13" t="n">
-        <v>960.0055634924552</v>
+        <v>121.2967297483346</v>
       </c>
       <c r="D13" t="n">
-        <v>800.5109188153651</v>
+        <v>121.2967297483346</v>
       </c>
       <c r="E13" t="n">
-        <v>639.6001036836846</v>
+        <v>121.2967297483346</v>
       </c>
       <c r="F13" t="n">
-        <v>474.9689777942758</v>
+        <v>121.2967297483346</v>
       </c>
       <c r="G13" t="n">
-        <v>307.7185867198193</v>
+        <v>121.2967297483346</v>
       </c>
       <c r="H13" t="n">
-        <v>158.1111315252759</v>
+        <v>121.2967297483346</v>
       </c>
       <c r="I13" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>55.84763503481257</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K13" t="n">
-        <v>210.3999627570506</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L13" t="n">
-        <v>470.2970630371111</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M13" t="n">
-        <v>759.5611194776044</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N13" t="n">
-        <v>1040.399901871855</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O13" t="n">
-        <v>1299.960512198329</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P13" t="n">
-        <v>1505.635952447941</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q13" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1571.163982250452</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U13" t="n">
-        <v>1571.163982250452</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V13" t="n">
-        <v>1571.163982250452</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W13" t="n">
-        <v>1571.163982250452</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X13" t="n">
-        <v>1543.534340936018</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y13" t="n">
-        <v>1318.798642324783</v>
+        <v>308.996436142379</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>451.8896763163319</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C14" t="n">
-        <v>41.76508562960205</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D14" t="n">
-        <v>41.76508562960205</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E14" t="n">
-        <v>41.76508562960205</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F14" t="n">
-        <v>41.76508562960205</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="G14" t="n">
-        <v>41.76508562960205</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H14" t="n">
-        <v>41.76508562960205</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I14" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>295.9505570973564</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>295.9505570973564</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
-        <v>812.7934917636817</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M14" t="n">
-        <v>1329.636426430007</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N14" t="n">
-        <v>1571.411346813777</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>2088.254281480102</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
-        <v>2088.254281480102</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q14" t="n">
-        <v>2088.254281480102</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R14" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>2088.254281480102</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>2088.254281480102</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U14" t="n">
-        <v>2088.254281480102</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V14" t="n">
-        <v>2047.45122772861</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W14" t="n">
-        <v>1663.690926863779</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X14" t="n">
-        <v>1263.047529032731</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y14" t="n">
-        <v>862.1108559808214</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>720.5959275161365</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>586.6008562650821</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>469.7036984844746</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>349.2108824768026</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>240.2510026593071</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>133.2608899736458</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>62.51367700936187</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L15" t="n">
-        <v>537.7254774811262</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M15" t="n">
-        <v>1054.568412147451</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N15" t="n">
-        <v>1571.411346813777</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="O15" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P15" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>1980.264271594411</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>1820.922407781419</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>1623.571596919638</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>1409.860069912671</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>1196.626901649</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>1020.300919787893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>860.8989601517231</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C16" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D16" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E16" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F16" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G16" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H16" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>55.84763503481257</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K16" t="n">
-        <v>210.3999627570506</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L16" t="n">
-        <v>470.2970630371111</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M16" t="n">
-        <v>759.5611194776044</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N16" t="n">
-        <v>1040.399901871855</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O16" t="n">
-        <v>1299.960512198329</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P16" t="n">
-        <v>1505.635952447941</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q16" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1485.891263925851</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1299.499495805762</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T16" t="n">
-        <v>1059.950756782464</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U16" t="n">
-        <v>777.1526093285881</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V16" t="n">
-        <v>503.2668642681101</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W16" t="n">
-        <v>224.1971997769844</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X16" t="n">
-        <v>41.76508562960205</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>893.3361278988716</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C17" t="n">
-        <v>483.2115372121417</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D17" t="n">
-        <v>78.74760730520222</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E17" t="n">
-        <v>41.76508562960205</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F17" t="n">
-        <v>41.76508562960205</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G17" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H17" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I17" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>41.76508562960205</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K17" t="n">
-        <v>41.76508562960205</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L17" t="n">
-        <v>558.6080202959273</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M17" t="n">
-        <v>1075.450954962253</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N17" t="n">
-        <v>1571.411346813777</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O17" t="n">
-        <v>2088.254281480102</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P17" t="n">
-        <v>2088.254281480102</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q17" t="n">
-        <v>2088.254281480102</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R17" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>2088.254281480102</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>2088.254281480102</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>2088.254281480102</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>2088.254281480102</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W17" t="n">
-        <v>1704.493980615271</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X17" t="n">
-        <v>1704.493980615271</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y17" t="n">
-        <v>1303.557307563361</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>720.5959275161365</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C18" t="n">
-        <v>586.6008562650821</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D18" t="n">
-        <v>469.7036984844746</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E18" t="n">
-        <v>349.2108824768026</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F18" t="n">
-        <v>240.2510026593071</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G18" t="n">
-        <v>133.2608899736458</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936187</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I18" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>234.5779431922353</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>690.384199457534</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>1207.227134123859</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>1708.850297433488</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N18" t="n">
-        <v>1708.850297433488</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O18" t="n">
-        <v>1708.850297433488</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P18" t="n">
-        <v>1708.850297433488</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
-        <v>2058.694762117472</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S18" t="n">
-        <v>1980.264271594411</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T18" t="n">
-        <v>1820.922407781419</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U18" t="n">
-        <v>1623.571596919638</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V18" t="n">
-        <v>1409.860069912671</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W18" t="n">
-        <v>1196.626901649</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X18" t="n">
-        <v>1020.300919787893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y18" t="n">
-        <v>860.8989601517231</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>367.429305553252</v>
+        <v>970.6584502828955</v>
       </c>
       <c r="C19" t="n">
-        <v>196.3359331149685</v>
+        <v>895.138129657802</v>
       </c>
       <c r="D19" t="n">
-        <v>41.76508562960205</v>
+        <v>735.6434849807119</v>
       </c>
       <c r="E19" t="n">
-        <v>41.76508562960205</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="F19" t="n">
-        <v>41.76508562960205</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G19" t="n">
-        <v>41.76508562960205</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H19" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J19" t="n">
-        <v>55.84763503481257</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K19" t="n">
-        <v>210.3999627570506</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L19" t="n">
-        <v>470.2970630371111</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M19" t="n">
-        <v>759.5611194776044</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N19" t="n">
-        <v>1040.399901871855</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O19" t="n">
-        <v>1299.960512198329</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P19" t="n">
-        <v>1505.635952447941</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q19" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1571.163982250452</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1571.163982250452</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V19" t="n">
-        <v>1297.278237189974</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="W19" t="n">
-        <v>1018.208572698848</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="X19" t="n">
-        <v>779.8647105585317</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="Y19" t="n">
-        <v>555.1290119472964</v>
+        <v>1158.35815667694</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5777,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4182.917908737509</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V20" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W20" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X20" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5831,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q21" t="n">
         <v>2139.732893541123</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>844.951486148634</v>
+        <v>874.3830142463817</v>
       </c>
       <c r="C22" t="n">
-        <v>844.951486148634</v>
+        <v>703.2896418080982</v>
       </c>
       <c r="D22" t="n">
-        <v>685.4568414715441</v>
+        <v>543.7949971310081</v>
       </c>
       <c r="E22" t="n">
-        <v>574.7326698490315</v>
+        <v>382.8841819993276</v>
       </c>
       <c r="F22" t="n">
-        <v>410.1015439596227</v>
+        <v>382.8841819993276</v>
       </c>
       <c r="G22" t="n">
-        <v>242.8511528851661</v>
+        <v>215.633790924871</v>
       </c>
       <c r="H22" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5935,25 +5937,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U22" t="n">
-        <v>1622.642594311473</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="V22" t="n">
-        <v>1348.756849250995</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="W22" t="n">
-        <v>1069.687184759869</v>
+        <v>874.3830142463817</v>
       </c>
       <c r="X22" t="n">
-        <v>1069.687184759869</v>
+        <v>874.3830142463817</v>
       </c>
       <c r="Y22" t="n">
-        <v>844.951486148634</v>
+        <v>874.3830142463817</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2237.518802661711</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C23" t="n">
-        <v>1827.394211974981</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D23" t="n">
-        <v>1422.930282068041</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E23" t="n">
-        <v>1008.590066584938</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F23" t="n">
-        <v>587.5596545386256</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G23" t="n">
-        <v>178.8313704314578</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H23" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K23" t="n">
         <v>885.5886702674165</v>
@@ -6017,22 +6019,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4439.978400477999</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4182.917908737509</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V23" t="n">
-        <v>3833.080354073989</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W23" t="n">
-        <v>3449.320053209158</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X23" t="n">
-        <v>3048.67665537811</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y23" t="n">
-        <v>2647.7399823262</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="24">
@@ -6078,10 +6080,10 @@
         <v>936.2207783851894</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P24" t="n">
         <v>2139.732893541123</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.2436976906228</v>
+        <v>308.996436142379</v>
       </c>
       <c r="C25" t="n">
-        <v>93.2436976906228</v>
+        <v>308.996436142379</v>
       </c>
       <c r="D25" t="n">
-        <v>93.2436976906228</v>
+        <v>308.996436142379</v>
       </c>
       <c r="E25" t="n">
-        <v>93.2436976906228</v>
+        <v>308.996436142379</v>
       </c>
       <c r="F25" t="n">
-        <v>93.2436976906228</v>
+        <v>308.996436142379</v>
       </c>
       <c r="G25" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H25" t="n">
         <v>93.2436976906228</v>
@@ -6172,25 +6174,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>1436.250826191383</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>1296.978374387823</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V25" t="n">
-        <v>1023.092629327345</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W25" t="n">
-        <v>744.0229648362191</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X25" t="n">
-        <v>505.6791026959025</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y25" t="n">
-        <v>280.9434040846672</v>
+        <v>308.996436142379</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C26" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D26" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E26" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F26" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G26" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6251,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4573.214074014467</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4351.007589961326</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4093.947098220835</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V26" t="n">
-        <v>3744.109543557316</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W26" t="n">
-        <v>3360.349242692484</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X26" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y26" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6305,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.732893541123</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1182.57754799176</v>
+        <v>3920.035659288462</v>
       </c>
       <c r="C28" t="n">
-        <v>1011.484175553476</v>
+        <v>3920.035659288462</v>
       </c>
       <c r="D28" t="n">
-        <v>851.989530876386</v>
+        <v>3760.541014611372</v>
       </c>
       <c r="E28" t="n">
-        <v>691.0787157447054</v>
+        <v>3599.630199479691</v>
       </c>
       <c r="F28" t="n">
-        <v>526.4475898552967</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G28" t="n">
-        <v>359.19719878084</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H28" t="n">
-        <v>209.5897435862967</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J28" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K28" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L28" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M28" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N28" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O28" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P28" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="W28" t="n">
-        <v>1622.642594311473</v>
+        <v>4383.115220040014</v>
       </c>
       <c r="X28" t="n">
-        <v>1595.012952997039</v>
+        <v>4144.771357899697</v>
       </c>
       <c r="Y28" t="n">
-        <v>1370.277254385804</v>
+        <v>3920.035659288462</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2151.931129920876</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C29" t="n">
-        <v>1741.806539234146</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D29" t="n">
-        <v>1337.342609327206</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E29" t="n">
-        <v>923.0023938441032</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F29" t="n">
-        <v>501.9719817977906</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G29" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H29" t="n">
         <v>93.2436976906228</v>
@@ -6494,19 +6496,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4097.330235996674</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V29" t="n">
-        <v>3747.492681333154</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W29" t="n">
-        <v>3363.732380468323</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X29" t="n">
-        <v>2963.088982637275</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y29" t="n">
-        <v>2562.152309585365</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="30">
@@ -6549,10 +6551,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>562.1177108836107</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O30" t="n">
         <v>2139.732893541123</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3785.072964682925</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C31" t="n">
-        <v>3785.072964682925</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>3625.578320005835</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>3464.667504874155</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>3300.036378984746</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>4337.363427183242</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U31" t="n">
-        <v>4054.565279729366</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V31" t="n">
-        <v>3972.77267107697</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W31" t="n">
-        <v>3972.77267107697</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X31" t="n">
-        <v>3972.77267107697</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y31" t="n">
-        <v>3972.77267107697</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6688,13 @@
         <v>873.3089913790386</v>
       </c>
       <c r="F32" t="n">
-        <v>588.3237444807176</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G32" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H32" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6780,19 +6782,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K33" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L33" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M33" t="n">
-        <v>1392.027034650488</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N33" t="n">
-        <v>2139.732893541123</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="P33" t="n">
         <v>2139.732893541123</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>917.5293612859864</v>
+        <v>692.7936626747511</v>
       </c>
       <c r="C34" t="n">
-        <v>895.138129657802</v>
+        <v>521.7002902364676</v>
       </c>
       <c r="D34" t="n">
-        <v>735.6434849807119</v>
+        <v>362.2056455593776</v>
       </c>
       <c r="E34" t="n">
-        <v>574.7326698490315</v>
+        <v>201.2948304276971</v>
       </c>
       <c r="F34" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
         <v>93.2436976906228</v>
@@ -6901,7 +6903,7 @@
         <v>1105.229067680031</v>
       </c>
       <c r="Y34" t="n">
-        <v>1105.229067680031</v>
+        <v>880.4933690687955</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D35" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E35" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F35" t="n">
-        <v>501.9719817977906</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G35" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H35" t="n">
         <v>93.2436976906228</v>
@@ -6962,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C36" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D36" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E36" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F36" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G36" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H36" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I36" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="L36" t="n">
-        <v>754.331869609911</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="M36" t="n">
-        <v>754.331869609911</v>
+        <v>3458.672769375206</v>
       </c>
       <c r="N36" t="n">
-        <v>754.331869609911</v>
+        <v>4332.330861486824</v>
       </c>
       <c r="O36" t="n">
-        <v>1458.288960155805</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="P36" t="n">
-        <v>1760.328909494509</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="Q36" t="n">
-        <v>2110.173374178493</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R36" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S36" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T36" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U36" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V36" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W36" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X36" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y36" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>584.7425299376769</v>
+        <v>607.5209443501507</v>
       </c>
       <c r="C37" t="n">
-        <v>413.6491574993933</v>
+        <v>607.5209443501507</v>
       </c>
       <c r="D37" t="n">
-        <v>254.1545128223033</v>
+        <v>448.0262996730607</v>
       </c>
       <c r="E37" t="n">
-        <v>93.2436976906228</v>
+        <v>448.0262996730607</v>
       </c>
       <c r="F37" t="n">
-        <v>93.2436976906228</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G37" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H37" t="n">
         <v>93.2436976906228</v>
@@ -7117,28 +7119,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S37" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U37" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V37" t="n">
-        <v>1514.591461574399</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="W37" t="n">
-        <v>1235.521797083273</v>
+        <v>1258.300211495747</v>
       </c>
       <c r="X37" t="n">
-        <v>997.1779349429565</v>
+        <v>1019.95634935543</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.4422363317212</v>
+        <v>795.220650744195</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C38" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D38" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E38" t="n">
-        <v>1320.262653899312</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="F38" t="n">
         <v>899.2322418529996</v>
@@ -7169,7 +7171,7 @@
         <v>179.5954603735497</v>
       </c>
       <c r="I38" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="J38" t="n">
         <v>347.4291691583771</v>
@@ -7202,22 +7204,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U38" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V38" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W38" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X38" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y38" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="39">
@@ -7257,13 +7259,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L39" t="n">
-        <v>754.331869609911</v>
+        <v>423.0977207349383</v>
       </c>
       <c r="M39" t="n">
-        <v>1597.308950304478</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N39" t="n">
-        <v>1597.308950304478</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O39" t="n">
         <v>2139.732893541123</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>93.2436976906228</v>
+        <v>837.543623783007</v>
       </c>
       <c r="C40" t="n">
-        <v>93.2436976906228</v>
+        <v>837.543623783007</v>
       </c>
       <c r="D40" t="n">
-        <v>93.2436976906228</v>
+        <v>837.543623783007</v>
       </c>
       <c r="E40" t="n">
-        <v>93.2436976906228</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F40" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G40" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H40" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7354,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S40" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T40" t="n">
-        <v>1383.093855288175</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U40" t="n">
-        <v>1109.278667993779</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="V40" t="n">
-        <v>835.3929229333004</v>
+        <v>837.543623783007</v>
       </c>
       <c r="W40" t="n">
-        <v>556.3232584421747</v>
+        <v>837.543623783007</v>
       </c>
       <c r="X40" t="n">
-        <v>317.9793963018581</v>
+        <v>837.543623783007</v>
       </c>
       <c r="Y40" t="n">
-        <v>93.2436976906228</v>
+        <v>837.543623783007</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2549.191389976085</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C41" t="n">
-        <v>2139.066799289355</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D41" t="n">
-        <v>1734.602869382415</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E41" t="n">
-        <v>1320.262653899312</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F41" t="n">
-        <v>899.2322418529996</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G41" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H41" t="n">
         <v>179.5954603735497</v>
@@ -7412,7 +7414,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
         <v>1598.180070079655</v>
@@ -7439,22 +7441,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V41" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W41" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X41" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y41" t="n">
-        <v>2959.412569640574</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="42">
@@ -7488,22 +7490,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L42" t="n">
-        <v>93.2436976906228</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="M42" t="n">
-        <v>936.2207783851894</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="N42" t="n">
-        <v>1809.878870496807</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O42" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P42" t="n">
         <v>2139.732893541123</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1153.452678737507</v>
+        <v>3624.284820157343</v>
       </c>
       <c r="C43" t="n">
-        <v>1011.484175553476</v>
+        <v>3453.19144771906</v>
       </c>
       <c r="D43" t="n">
-        <v>851.989530876386</v>
+        <v>3293.69680304197</v>
       </c>
       <c r="E43" t="n">
-        <v>691.0787157447054</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F43" t="n">
-        <v>526.4475898552967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G43" t="n">
-        <v>359.19719878084</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H43" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I43" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J43" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K43" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L43" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M43" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N43" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O43" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P43" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q43" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R43" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S43" t="n">
-        <v>1436.250826191383</v>
+        <v>4475.79311641105</v>
       </c>
       <c r="T43" t="n">
-        <v>1436.250826191383</v>
+        <v>4236.244377387751</v>
       </c>
       <c r="U43" t="n">
-        <v>1153.452678737507</v>
+        <v>3953.446229933875</v>
       </c>
       <c r="V43" t="n">
-        <v>1153.452678737507</v>
+        <v>3679.560484873397</v>
       </c>
       <c r="W43" t="n">
-        <v>1153.452678737507</v>
+        <v>3624.284820157343</v>
       </c>
       <c r="X43" t="n">
-        <v>1153.452678737507</v>
+        <v>3624.284820157343</v>
       </c>
       <c r="Y43" t="n">
-        <v>1153.452678737507</v>
+        <v>3624.284820157343</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>235.6322383273342</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C44" t="n">
-        <v>41.76508562960205</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D44" t="n">
-        <v>41.76508562960205</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E44" t="n">
-        <v>41.76508562960205</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F44" t="n">
-        <v>41.76508562960205</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="G44" t="n">
-        <v>41.76508562960205</v>
+        <v>464.5807072718708</v>
       </c>
       <c r="H44" t="n">
-        <v>41.76508562960205</v>
+        <v>153.6722098995888</v>
       </c>
       <c r="I44" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>41.76508562960205</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K44" t="n">
-        <v>558.6080202959273</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>1075.450954962253</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>1530.854701124212</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>1530.854701124212</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>2047.697635790537</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>2047.697635790537</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>2047.697635790537</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>2088.254281480102</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>2088.254281480102</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>1831.193789739612</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>1831.193789739612</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W44" t="n">
-        <v>1447.433488874781</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X44" t="n">
-        <v>1046.790091043734</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y44" t="n">
-        <v>645.8534179918237</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>720.5959275161366</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>586.6008562650824</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>469.7036984844747</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>349.2108824768027</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>240.2510026593072</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>133.260889973646</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>62.51367700936203</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>234.5779431922353</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>234.5779431922353</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L45" t="n">
-        <v>751.4208778585605</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M45" t="n">
-        <v>1025.008892784822</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N45" t="n">
-        <v>1541.851827451147</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O45" t="n">
-        <v>2058.694762117472</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P45" t="n">
-        <v>2058.694762117472</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
-        <v>2058.694762117472</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>1980.264271594411</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1820.922407781419</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1623.571596919638</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1409.860069912672</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1196.626901649001</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1020.300919787893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>860.8989601517233</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>538.8087471882716</v>
+        <v>227.5827896484517</v>
       </c>
       <c r="C46" t="n">
-        <v>538.8087471882716</v>
+        <v>227.5827896484517</v>
       </c>
       <c r="D46" t="n">
-        <v>379.3141025111816</v>
+        <v>227.5827896484517</v>
       </c>
       <c r="E46" t="n">
-        <v>379.3141025111816</v>
+        <v>227.5827896484517</v>
       </c>
       <c r="F46" t="n">
-        <v>214.6829766217729</v>
+        <v>227.5827896484517</v>
       </c>
       <c r="G46" t="n">
-        <v>158.1111315252759</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>158.1111315252759</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>55.84763503481257</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>210.3999627570506</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>470.2970630371111</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>759.5611194776044</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>1040.399901871855</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>1299.960512198329</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>1505.635952447941</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1485.891263925851</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1299.499495805762</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T46" t="n">
-        <v>1059.950756782464</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U46" t="n">
-        <v>777.1526093285881</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V46" t="n">
-        <v>777.1526093285881</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W46" t="n">
-        <v>777.1526093285881</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="X46" t="n">
-        <v>538.8087471882716</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="Y46" t="n">
-        <v>538.8087471882716</v>
+        <v>415.2824960424961</v>
       </c>
     </row>
   </sheetData>
@@ -7985,22 +7987,22 @@
         <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>553.1935596277625</v>
       </c>
       <c r="P2" t="n">
-        <v>270.21439869122</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8061,22 +8063,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M3" t="n">
-        <v>395.5690244730511</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
         <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8216,7 +8218,7 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>265.701425083553</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
         <v>617.5489684328704</v>
@@ -8225,19 +8227,19 @@
         <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>552.9160747585987</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,28 +8297,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>98.12401665379664</v>
       </c>
       <c r="N6" t="n">
-        <v>524.3053858067742</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>531.8357165796326</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>535.1658287548267</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>615.7129336509097</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,25 +8534,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N9" t="n">
-        <v>262.4384495236158</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P9" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
         <v>59.00019910540541</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>611.1999600432426</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
-        <v>617.5489684328704</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>269.8552598673813</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>614.9758611266449</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507342</v>
       </c>
       <c r="Q11" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,22 +8771,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>98.1240166537967</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
-        <v>579.8150493700256</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P12" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -8927,28 +8929,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
-        <v>617.5489684328704</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>615.3537948270711</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>337.1293820533569</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
-        <v>615.2533459958087</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,16 +9011,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>557.0846165901664</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>579.627854108443</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>579.8150493700256</v>
+        <v>605.6544519663084</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.32359133330795</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K17" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L17" t="n">
-        <v>617.5489684328704</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M17" t="n">
-        <v>615.3537948270711</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N17" t="n">
-        <v>593.882383535937</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O17" t="n">
-        <v>615.2533459958087</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P17" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>564.2543476875377</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
@@ -9407,7 +9409,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M20" t="n">
-        <v>877.4504173780092</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N20" t="n">
         <v>853.701196452193</v>
@@ -9477,28 +9479,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>448.5973834639358</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9726,13 +9728,13 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>701.4825071992079</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
@@ -9951,28 +9953,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>448.5973834639358</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10197,13 +10199,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N30" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
@@ -10428,7 +10430,7 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
         <v>56.11452381084905</v>
@@ -10437,13 +10439,13 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N33" t="n">
-        <v>808.4518367176235</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
         <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>387.4455168657486</v>
       </c>
       <c r="Q33" t="n">
         <v>56.69261850483872</v>
@@ -10604,7 +10606,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q35" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
         <v>128.2784515920617</v>
@@ -10668,25 +10670,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N36" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629454</v>
       </c>
       <c r="P36" t="n">
-        <v>359.3504929206866</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10905,16 +10907,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>723.8803540323523</v>
+        <v>389.300405673794</v>
       </c>
       <c r="M39" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
-        <v>605.6544519663084</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
@@ -11060,10 +11062,10 @@
         <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
-        <v>815.2746908024792</v>
+        <v>815.2746908024794</v>
       </c>
       <c r="M41" t="n">
         <v>877.4504173780091</v>
@@ -11136,25 +11138,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>650.0674079052355</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
         <v>56.69261850483872</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>611.1999600432426</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>617.5489684328704</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>553.2940084590249</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>615.2533459958087</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11373,22 +11375,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>333.9158139669643</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N45" t="n">
-        <v>575.2569637637755</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O45" t="n">
-        <v>579.8150493700256</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P45" t="n">
         <v>54.25963500280375</v>
@@ -11397,7 +11399,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>381.3932644057257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22556,16 +22558,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>7.998408555527647</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22613,7 +22615,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,13 +22704,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
@@ -22717,7 +22719,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
@@ -22753,22 +22755,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>4.874559219806486</v>
       </c>
       <c r="W4" t="n">
-        <v>123.0384446415722</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22784,22 +22786,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -22838,19 +22840,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>192.0073665696474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>227.9033675947159</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -22948,19 +22950,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>56.21808542220074</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>208.6070786176243</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -23018,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.77593127592985</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>302.8867921229245</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -23069,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23194,10 +23196,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>82.68617307340605</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,13 +23226,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>8.893130557884689</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -23242,10 +23244,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -23258,22 +23260,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -23306,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>92.86148531716762</v>
+        <v>49.19646844041395</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.41008369958246</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,22 +23469,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -23498,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>37.84312462897441</v>
       </c>
       <c r="G14" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>305.9441559029069</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300493</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23738,13 +23740,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>373.584116869428</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
@@ -23780,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23890,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>94.61732129505808</v>
       </c>
       <c r="D19" t="n">
-        <v>4.874559219806315</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -23941,19 +23943,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23972,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>356.995880838973</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23987,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24026,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>308.5558614412299</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24127,25 +24129,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>49.68477707407627</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.1277737774093</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,16 +24177,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24221,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>223.0676163851325</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,10 +24259,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
@@ -24376,10 +24378,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>100.0940567390713</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -24412,13 +24414,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>142.0904386938125</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24446,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>356.995880838973</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24461,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>45.84716204233405</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24506,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>129.680898419834</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24661,10 +24663,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24695,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -24734,10 +24736,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>49.19646844041395</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>102.5059940158881</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24835,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
         <v>148.1113806425979</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
         <v>184.5278504388888</v>
@@ -24895,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>190.1722050440015</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="32">
@@ -24926,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>147.2151194019981</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>56.01419322081109</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
         <v>115.1825854367171</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25163,13 +25165,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>85.48824505609757</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25312,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>125.4393064742111</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>115.1825854367171</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>184.5278504388888</v>
@@ -25369,7 +25371,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>164.1762662001699</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25397,10 +25399,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>32.28731256679839</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25442,10 +25444,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>222.4997066824603</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>14.30144802244516</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>8.893130557884547</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25643,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25679,10 +25681,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>222.4997066824603</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>134.6847134965116</v>
       </c>
     </row>
     <row r="42">
@@ -25786,7 +25788,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>28.83362056170967</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,16 +25839,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>221.5560597773213</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
@@ -25865,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>214.0948636091077</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>25.66401796922125</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>109.57176051818</v>
+        <v>32.58218612546142</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>514274.9855128588</v>
+        <v>514274.9855128587</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>514274.9855128588</v>
+        <v>745305.8396899565</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>514274.9855128587</v>
+        <v>783030.6520654114</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>514274.9855128588</v>
+        <v>783030.6520654116</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>514274.9855128587</v>
+        <v>783030.6520654112</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>783030.6520654114</v>
+        <v>783030.6520654112</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>783030.6520654114</v>
+        <v>783030.6520654113</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>783030.6520654112</v>
+        <v>783030.6520654116</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>783030.6520654114</v>
+        <v>783030.6520654116</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>783030.6520654116</v>
+        <v>783030.6520654113</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>783030.6520654113</v>
+        <v>783030.6520654112</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>514274.9855128588</v>
+        <v>783030.6520654113</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>190259.0141861051</v>
+        <v>190259.0141861052</v>
       </c>
       <c r="C2" t="n">
         <v>190259.0141861052</v>
       </c>
       <c r="D2" t="n">
-        <v>190259.0141861052</v>
+        <v>275697.497415602</v>
       </c>
       <c r="E2" t="n">
-        <v>190259.0141861052</v>
+        <v>289648.6675350938</v>
       </c>
       <c r="F2" t="n">
-        <v>190259.0141861052</v>
+        <v>289648.6675350937</v>
       </c>
       <c r="G2" t="n">
-        <v>190259.0141861052</v>
+        <v>289648.6675350936</v>
       </c>
       <c r="H2" t="n">
-        <v>289648.667535094</v>
+        <v>289648.6675350938</v>
       </c>
       <c r="I2" t="n">
-        <v>289648.6675350938</v>
+        <v>289648.6675350939</v>
       </c>
       <c r="J2" t="n">
         <v>289648.6675350938</v>
       </c>
       <c r="K2" t="n">
-        <v>289648.6675350938</v>
+        <v>289648.6675350937</v>
       </c>
       <c r="L2" t="n">
         <v>289648.6675350937</v>
@@ -26347,13 +26349,13 @@
         <v>289648.6675350938</v>
       </c>
       <c r="N2" t="n">
-        <v>289648.6675350939</v>
+        <v>289648.6675350937</v>
       </c>
       <c r="O2" t="n">
         <v>289648.6675350938</v>
       </c>
       <c r="P2" t="n">
-        <v>190259.0141861053</v>
+        <v>289648.6675350937</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>171827.4689100689</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>26968.95418093387</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>173617.4105196494</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>139999.3108647531</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>22509.26477404713</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39061.35498003941</v>
+        <v>39061.35498003942</v>
       </c>
       <c r="C4" t="n">
         <v>39061.35498003941</v>
       </c>
       <c r="D4" t="n">
-        <v>39061.35498003942</v>
+        <v>56757.52077494588</v>
       </c>
       <c r="E4" t="n">
-        <v>39061.35498003941</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="F4" t="n">
-        <v>39061.35498003941</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="G4" t="n">
-        <v>39061.35498003941</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="H4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="I4" t="n">
         <v>59647.11115782198</v>
       </c>
       <c r="J4" t="n">
+        <v>59647.11115782197</v>
+      </c>
+      <c r="K4" t="n">
+        <v>59647.11115782197</v>
+      </c>
+      <c r="L4" t="n">
         <v>59647.11115782198</v>
-      </c>
-      <c r="K4" t="n">
-        <v>59647.11115782198</v>
-      </c>
-      <c r="L4" t="n">
-        <v>59647.11115782197</v>
       </c>
       <c r="M4" t="n">
         <v>59647.11115782197</v>
@@ -26457,7 +26459,7 @@
         <v>59647.11115782198</v>
       </c>
       <c r="P4" t="n">
-        <v>39061.35498003941</v>
+        <v>59647.11115782197</v>
       </c>
     </row>
     <row r="5">
@@ -26473,16 +26475,16 @@
         <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849755</v>
+        <v>99001.07135520034</v>
       </c>
       <c r="E5" t="n">
-        <v>31741.46507849755</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="F5" t="n">
-        <v>31741.46507849755</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="G5" t="n">
-        <v>31741.46507849755</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="H5" t="n">
         <v>70865.21024487332</v>
@@ -26509,7 +26511,7 @@
         <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>31741.46507849755</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-89126.91576554588</v>
+        <v>-89126.9157655458</v>
       </c>
       <c r="C6" t="n">
-        <v>85828.59412756824</v>
+        <v>85828.59412756827</v>
       </c>
       <c r="D6" t="n">
-        <v>85828.59412756821</v>
+        <v>-51888.5636246131</v>
       </c>
       <c r="E6" t="n">
-        <v>119456.1941275682</v>
+        <v>132167.3919514646</v>
       </c>
       <c r="F6" t="n">
-        <v>119456.1941275682</v>
+        <v>159136.3461323985</v>
       </c>
       <c r="G6" t="n">
-        <v>119456.1941275682</v>
+        <v>159136.3461323984</v>
       </c>
       <c r="H6" t="n">
-        <v>-14481.0643872507</v>
+        <v>159136.3461323985</v>
       </c>
       <c r="I6" t="n">
-        <v>159136.3461323985</v>
+        <v>159136.3461323986</v>
       </c>
       <c r="J6" t="n">
-        <v>22541.54532650356</v>
+        <v>22541.54532650352</v>
       </c>
       <c r="K6" t="n">
         <v>159136.3461323985</v>
       </c>
       <c r="L6" t="n">
+        <v>19137.03526764538</v>
+      </c>
+      <c r="M6" t="n">
+        <v>136627.0813583515</v>
+      </c>
+      <c r="N6" t="n">
         <v>159136.3461323984</v>
-      </c>
-      <c r="M6" t="n">
-        <v>159136.3461323985</v>
-      </c>
-      <c r="N6" t="n">
-        <v>159136.3461323986</v>
       </c>
       <c r="O6" t="n">
         <v>159136.3461323985</v>
       </c>
       <c r="P6" t="n">
-        <v>119456.1941275683</v>
+        <v>159136.3461323985</v>
       </c>
     </row>
   </sheetData>
@@ -26793,16 +26795,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700256</v>
+        <v>1075.221568342111</v>
       </c>
       <c r="E4" t="n">
-        <v>522.0635703700256</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="F4" t="n">
-        <v>522.0635703700256</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="G4" t="n">
-        <v>522.0635703700256</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="H4" t="n">
         <v>1165.546221132785</v>
@@ -26829,7 +26831,7 @@
         <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>522.0635703700256</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>553.1579979720855</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>90.32465279067401</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,7 +27029,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>643.4826507627594</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27039,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720855</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>90.32465279067401</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720855</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>90.32465279067401</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>643.4826507627594</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34705,22 +34707,22 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5650354103359</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34781,22 +34783,22 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
+        <v>506.6900639491208</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M3" t="n">
-        <v>338.0047407346337</v>
-      </c>
-      <c r="N3" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34936,7 +34938,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>176.5650354103358</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>522.0635703700256</v>
@@ -34945,19 +34947,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
+        <v>460.0037840019794</v>
+      </c>
+      <c r="O5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,28 +35017,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>40.55973291537923</v>
+      </c>
+      <c r="N6" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M6" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N6" t="n">
-        <v>471.1119924130243</v>
       </c>
       <c r="O6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>442.6993269064155</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>441.8756042977813</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
-        <v>522.0635703700256</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>522.0635703700256</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N9" t="n">
-        <v>209.2450561298658</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>522.0635703700256</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
-        <v>522.0635703700256</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>176.5650354103359</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>522.0635703700256</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q11" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>40.55973291537929</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
-        <v>522.0635703700256</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P12" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35647,28 +35649,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
-        <v>522.0635703700256</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>522.0635703700256</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>244.2170912967376</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
-        <v>522.0635703700256</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,16 +35731,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.9700927793173</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>522.0635703700256</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>522.0635703700256</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L17" t="n">
-        <v>522.0635703700256</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M17" t="n">
-        <v>522.0635703700256</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N17" t="n">
-        <v>500.9700927793177</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O17" t="n">
-        <v>522.0635703700256</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>506.6900639491203</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36127,7 +36129,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M20" t="n">
-        <v>784.1601929209637</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N20" t="n">
         <v>760.7889056955737</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>390.8459044639358</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36446,13 +36448,13 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>648.289113805458</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>390.8459044639358</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36917,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N30" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,13 +37159,13 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N33" t="n">
-        <v>755.2584433238735</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37324,7 +37326,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q35" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
         <v>40.9663087773382</v>
@@ -37388,25 +37390,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629454</v>
       </c>
       <c r="P36" t="n">
-        <v>305.0908579178828</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37625,16 +37627,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>667.7658302215033</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="M39" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O39" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37780,10 +37782,10 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
-        <v>719.7892927396343</v>
+        <v>719.7892927396346</v>
       </c>
       <c r="M41" t="n">
         <v>784.1601929209636</v>
@@ -37856,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>593.9528840943865</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>522.0635703700256</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>522.0635703700256</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>460.0037840019794</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>522.0635703700256</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
         <v>40.9663087773382</v>
@@ -38093,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>276.3515302285469</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N45" t="n">
-        <v>522.0635703700256</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O45" t="n">
-        <v>522.0635703700256</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38117,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>714272.9683894477</v>
+        <v>711459.9691252345</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5301029.811029742</v>
+        <v>5301029.811029741</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3772361.27382385</v>
+        <v>3772361.273823853</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8492226.400997642</v>
+        <v>8492226.400997644</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24.72570346211879</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>208.5521144333624</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>71.27423873582465</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
@@ -825,19 +825,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>266.2723283900668</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>201.2306101071993</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>62.48252025343756</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
@@ -1113,16 +1113,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>214.9288021876725</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>29.06736062834933</v>
       </c>
     </row>
     <row r="8">
@@ -1144,10 +1144,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>113.9333158029248</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>372.6467672504913</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>65.42520756919185</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>42.43741174507631</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
@@ -1356,10 +1356,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -1387,10 +1387,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>170.7879507721958</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
         <v>254.489886823085</v>
@@ -1432,7 +1432,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>343.5575398289572</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>27.77250173713465</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
@@ -1593,10 +1593,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>42.53944252214013</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1618,10 +1618,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>378.9769832968749</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
@@ -1663,13 +1663,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>191.9284587841973</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>228.2601210751805</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
         <v>279.9701659793371</v>
@@ -1833,7 +1833,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="17">
@@ -1858,13 +1858,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>119.8051733265735</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -2004,22 +2004,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>74.76511741884258</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>42.43741174507654</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -2086,10 +2086,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>43.42340976889702</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>222.2025742562865</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
@@ -2101,7 +2101,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>5.983606865188615</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>42.43741174507654</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2335,7 +2335,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>85.2997057160983</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>65.4838304246407</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
@@ -2544,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>43.42340976889702</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
@@ -2569,13 +2569,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>358.7938392237627</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -2718,22 +2718,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>33.30391621068068</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V29" t="n">
-        <v>243.833185100996</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -3043,7 +3043,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>170.7879507721958</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>106.9706214097036</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
@@ -3255,7 +3255,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>304.7162152260364</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.4066896505621</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>37.54550815630356</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
@@ -3511,10 +3511,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>384.5327953590509</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
         <v>404.6410012660961</v>
@@ -3523,7 +3523,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,10 +3556,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>117.4784251967216</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>145.0002589579186</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>41.24458363092516</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -3793,10 +3793,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3808,7 +3808,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.2425928248792</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3900,13 +3900,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
@@ -3960,13 +3960,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>54.72290806889306</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>183.0513514827122</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -3988,7 +3988,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
@@ -3997,7 +3997,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>59.82422708687632</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>219.9844192126098</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>132.9957010382506</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
@@ -4197,13 +4197,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1662.342150385648</v>
+        <v>662.5483777641728</v>
       </c>
       <c r="C2" t="n">
-        <v>1252.217559698918</v>
+        <v>252.4237870774429</v>
       </c>
       <c r="D2" t="n">
-        <v>847.7536297919787</v>
+        <v>252.4237870774429</v>
       </c>
       <c r="E2" t="n">
-        <v>847.7536297919787</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F2" t="n">
-        <v>847.7536297919787</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G2" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
@@ -4333,22 +4333,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
+        <v>41.76508562960205</v>
+      </c>
+      <c r="L2" t="n">
+        <v>41.76508562960205</v>
+      </c>
+      <c r="M2" t="n">
         <v>558.6080202959273</v>
       </c>
-      <c r="L2" t="n">
-        <v>1075.450954962253</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1592.293889628578</v>
-      </c>
       <c r="N2" t="n">
-        <v>1592.293889628578</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O2" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
         <v>2047.697635790537</v>
@@ -4357,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U2" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V2" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W2" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="X2" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="Y2" t="n">
-        <v>1687.317608428192</v>
+        <v>1072.769557428662</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="K3" t="n">
-        <v>690.384199457534</v>
+        <v>497.571341894901</v>
       </c>
       <c r="L3" t="n">
-        <v>1192.007362767164</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M3" t="n">
         <v>1192.007362767164</v>
       </c>
       <c r="N3" t="n">
-        <v>1192.007362767164</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="O3" t="n">
-        <v>1192.007362767164</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P3" t="n">
         <v>1708.850297433489</v>
@@ -4448,13 +4448,13 @@
         <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.3531027449756</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C4" t="n">
-        <v>201.259730306692</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D4" t="n">
-        <v>41.76508562960205</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E4" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F4" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G4" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U4" t="n">
-        <v>1571.163982250452</v>
+        <v>1203.093116471976</v>
       </c>
       <c r="V4" t="n">
-        <v>1302.202034381698</v>
+        <v>1203.093116471976</v>
       </c>
       <c r="W4" t="n">
-        <v>1023.132369890572</v>
+        <v>1203.093116471976</v>
       </c>
       <c r="X4" t="n">
-        <v>784.7885077502552</v>
+        <v>1203.093116471976</v>
       </c>
       <c r="Y4" t="n">
-        <v>560.0528091390199</v>
+        <v>1203.093116471976</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1265.081890330439</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="C5" t="n">
-        <v>854.9572996437093</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="D5" t="n">
-        <v>450.4933697367699</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="E5" t="n">
-        <v>450.4933697367699</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="F5" t="n">
-        <v>450.4933697367699</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>558.6080202959273</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M5" t="n">
-        <v>1075.450954962253</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N5" t="n">
-        <v>1530.854701124212</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>2025.140624658448</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V5" t="n">
-        <v>1675.303069994929</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W5" t="n">
-        <v>1675.303069994929</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X5" t="n">
-        <v>1675.303069994929</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="Y5" t="n">
-        <v>1675.303069994929</v>
+        <v>740.1083749522213</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
@@ -4652,19 +4652,19 @@
         <v>497.5713418949007</v>
       </c>
       <c r="L6" t="n">
-        <v>497.5713418949007</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="M6" t="n">
-        <v>537.7254774811262</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="N6" t="n">
-        <v>1054.568412147451</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="O6" t="n">
-        <v>1571.411346813777</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q6" t="n">
         <v>2088.254281480102</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.3531027449756</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>201.259730306692</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.950756782464</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U7" t="n">
-        <v>777.1526093285881</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V7" t="n">
-        <v>560.0528091390199</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="W7" t="n">
-        <v>560.0528091390199</v>
+        <v>309.4699181015847</v>
       </c>
       <c r="X7" t="n">
-        <v>560.0528091390199</v>
+        <v>71.12605596126804</v>
       </c>
       <c r="Y7" t="n">
-        <v>560.0528091390199</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1740.939116293115</v>
+        <v>2455.613655069904</v>
       </c>
       <c r="C8" t="n">
-        <v>1330.814525606385</v>
+        <v>2045.489064383174</v>
       </c>
       <c r="D8" t="n">
-        <v>926.3505956994459</v>
+        <v>1641.025134476234</v>
       </c>
       <c r="E8" t="n">
-        <v>512.0103802163426</v>
+        <v>1226.684918993131</v>
       </c>
       <c r="F8" t="n">
-        <v>396.9262228396509</v>
+        <v>805.6545069468186</v>
       </c>
       <c r="G8" t="n">
-        <v>396.9262228396509</v>
+        <v>396.9262228396508</v>
       </c>
       <c r="H8" t="n">
-        <v>86.01772546736888</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I8" t="n">
-        <v>86.01772546736888</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>86.01772546736888</v>
+        <v>340.2031969351231</v>
       </c>
       <c r="K8" t="n">
-        <v>524.2900591047203</v>
+        <v>878.3626980441626</v>
       </c>
       <c r="L8" t="n">
-        <v>1236.881458916958</v>
+        <v>1590.9540978564</v>
       </c>
       <c r="M8" t="n">
-        <v>2013.200049908712</v>
+        <v>2367.272688848154</v>
       </c>
       <c r="N8" t="n">
-        <v>2766.38106654733</v>
+        <v>3120.453705486772</v>
       </c>
       <c r="O8" t="n">
-        <v>3410.011922964435</v>
+        <v>3764.084561903877</v>
       </c>
       <c r="P8" t="n">
-        <v>3939.168620883587</v>
+        <v>3979.725266573146</v>
       </c>
       <c r="Q8" t="n">
-        <v>4260.329627678879</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="R8" t="n">
-        <v>4300.886273368444</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>4165.605198162544</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="T8" t="n">
-        <v>3943.398714109403</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="U8" t="n">
-        <v>3686.338222368913</v>
+        <v>4043.825781627948</v>
       </c>
       <c r="V8" t="n">
-        <v>3336.500667705394</v>
+        <v>4043.825781627948</v>
       </c>
       <c r="W8" t="n">
-        <v>2952.740366840562</v>
+        <v>3667.414905617351</v>
       </c>
       <c r="X8" t="n">
-        <v>2552.096969009515</v>
+        <v>3266.771507786304</v>
       </c>
       <c r="Y8" t="n">
-        <v>2151.160295957605</v>
+        <v>2865.834834734394</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>764.8485673539033</v>
+        <v>764.848567353903</v>
       </c>
       <c r="C9" t="n">
-        <v>630.8534961028489</v>
+        <v>630.8534961028488</v>
       </c>
       <c r="D9" t="n">
-        <v>513.9563383222413</v>
+        <v>513.9563383222412</v>
       </c>
       <c r="E9" t="n">
-        <v>393.4635223145693</v>
+        <v>393.4635223145692</v>
       </c>
       <c r="F9" t="n">
-        <v>284.5036424970739</v>
+        <v>284.5036424970738</v>
       </c>
       <c r="G9" t="n">
-        <v>177.5135298114126</v>
+        <v>177.5135298114125</v>
       </c>
       <c r="H9" t="n">
-        <v>106.7663168471287</v>
+        <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>86.01772546736888</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>86.01772546736888</v>
+        <v>278.830583030002</v>
       </c>
       <c r="K9" t="n">
-        <v>86.01772546736888</v>
+        <v>734.6368392953007</v>
       </c>
       <c r="L9" t="n">
-        <v>86.01772546736888</v>
+        <v>1191.397044782725</v>
       </c>
       <c r="M9" t="n">
-        <v>928.9948061619356</v>
+        <v>1191.397044782725</v>
       </c>
       <c r="N9" t="n">
-        <v>1802.652898273554</v>
+        <v>1191.397044782725</v>
       </c>
       <c r="O9" t="n">
-        <v>2132.506921317869</v>
+        <v>1191.397044782725</v>
       </c>
       <c r="P9" t="n">
-        <v>2132.506921317869</v>
+        <v>1753.102937271255</v>
       </c>
       <c r="Q9" t="n">
-        <v>2132.506921317869</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="R9" t="n">
         <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>2024.516911432178</v>
+        <v>2024.516911432177</v>
       </c>
       <c r="T9" t="n">
         <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1667.824236757405</v>
+        <v>1667.824236757404</v>
       </c>
       <c r="V9" t="n">
-        <v>1454.112709750439</v>
+        <v>1454.112709750438</v>
       </c>
       <c r="W9" t="n">
         <v>1240.879541486767</v>
@@ -4928,7 +4928,7 @@
         <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>905.1515999894899</v>
+        <v>905.1515999894897</v>
       </c>
     </row>
     <row r="10">
@@ -4938,46 +4938,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.4498396147517</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="C10" t="n">
-        <v>268.4498396147517</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="D10" t="n">
-        <v>268.4498396147517</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="E10" t="n">
-        <v>268.4498396147517</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="F10" t="n">
-        <v>268.4498396147517</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="G10" t="n">
-        <v>268.4498396147517</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="H10" t="n">
-        <v>202.3637713630427</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I10" t="n">
-        <v>86.01772546736888</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J10" t="n">
-        <v>100.1002748725794</v>
+        <v>100.1002748725793</v>
       </c>
       <c r="K10" t="n">
-        <v>254.6526025948174</v>
+        <v>254.6526025948173</v>
       </c>
       <c r="L10" t="n">
-        <v>514.549702874878</v>
+        <v>514.5497028748778</v>
       </c>
       <c r="M10" t="n">
-        <v>803.8137593153713</v>
+        <v>803.813759315371</v>
       </c>
       <c r="N10" t="n">
-        <v>1084.652541709622</v>
+        <v>1084.652541709621</v>
       </c>
       <c r="O10" t="n">
-        <v>1344.213152036096</v>
+        <v>1344.213152036095</v>
       </c>
       <c r="P10" t="n">
         <v>1549.888592285708</v>
@@ -4986,28 +4986,28 @@
         <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1530.143903763619</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="S10" t="n">
-        <v>1343.752135643529</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="T10" t="n">
-        <v>1104.203396620231</v>
+        <v>1572.550549618445</v>
       </c>
       <c r="U10" t="n">
-        <v>821.4052491663554</v>
+        <v>1289.752402164569</v>
       </c>
       <c r="V10" t="n">
-        <v>547.5195041058773</v>
+        <v>1015.866657104091</v>
       </c>
       <c r="W10" t="n">
-        <v>268.4498396147517</v>
+        <v>736.7969926129651</v>
       </c>
       <c r="X10" t="n">
-        <v>268.4498396147517</v>
+        <v>498.4531304726485</v>
       </c>
       <c r="Y10" t="n">
-        <v>268.4498396147517</v>
+        <v>273.7174318614132</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2151.931129920876</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C11" t="n">
-        <v>1741.806539234146</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D11" t="n">
-        <v>1337.342609327206</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E11" t="n">
-        <v>923.0023938441032</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F11" t="n">
-        <v>501.9719817977906</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G11" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H11" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
@@ -5071,22 +5071,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>4354.390727737164</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>4097.330235996674</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V11" t="n">
-        <v>3747.492681333154</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W11" t="n">
-        <v>3363.732380468323</v>
+        <v>3350.771460859042</v>
       </c>
       <c r="X11" t="n">
-        <v>2963.088982637275</v>
+        <v>2950.128063027995</v>
       </c>
       <c r="Y11" t="n">
-        <v>2562.152309585365</v>
+        <v>2549.191389976085</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>93.2436976906228</v>
+        <v>212.9817385874103</v>
       </c>
       <c r="K12" t="n">
-        <v>93.2436976906228</v>
+        <v>212.9817385874103</v>
       </c>
       <c r="L12" t="n">
-        <v>93.2436976906228</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="M12" t="n">
-        <v>936.2207783851894</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="N12" t="n">
-        <v>1809.878870496807</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O12" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P12" t="n">
         <v>2139.732893541123</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>121.2967297483346</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C13" t="n">
-        <v>121.2967297483346</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D13" t="n">
-        <v>121.2967297483346</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E13" t="n">
-        <v>121.2967297483346</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F13" t="n">
-        <v>121.2967297483346</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>121.2967297483346</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>121.2967297483346</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
@@ -5226,25 +5226,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T13" t="n">
-        <v>1383.093855288175</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U13" t="n">
-        <v>1100.295707834299</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V13" t="n">
-        <v>826.4099627738212</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W13" t="n">
-        <v>547.3402982826956</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="X13" t="n">
-        <v>308.996436142379</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y13" t="n">
-        <v>308.996436142379</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C14" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D14" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E14" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F14" t="n">
-        <v>490.5039577458317</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G14" t="n">
         <v>490.5039577458317</v>
@@ -5311,19 +5311,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U14" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V14" t="n">
-        <v>3697.79927886809</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W14" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X14" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y14" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>754.331869609911</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M15" t="n">
-        <v>1597.308950304478</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N15" t="n">
-        <v>1597.308950304478</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O15" t="n">
-        <v>2139.732893541123</v>
+        <v>2106.908073983737</v>
       </c>
       <c r="P15" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q15" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5466,19 +5466,19 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T16" t="n">
-        <v>1392.076815447654</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U16" t="n">
-        <v>1109.278667993779</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V16" t="n">
-        <v>835.3929229333004</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W16" t="n">
-        <v>556.3232584421747</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X16" t="n">
-        <v>317.9793963018581</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y16" t="n">
         <v>93.2436976906228</v>
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2102.237727455811</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C17" t="n">
-        <v>1692.113136769081</v>
+        <v>1949.173628509571</v>
       </c>
       <c r="D17" t="n">
-        <v>1287.649206862142</v>
+        <v>1544.709698602632</v>
       </c>
       <c r="E17" t="n">
-        <v>873.3089913790386</v>
+        <v>1130.369483119528</v>
       </c>
       <c r="F17" t="n">
-        <v>452.2785793327262</v>
+        <v>709.339071073216</v>
       </c>
       <c r="G17" t="n">
-        <v>93.2436976906228</v>
+        <v>300.6107869660482</v>
       </c>
       <c r="H17" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5548,19 +5548,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="18">
@@ -5600,13 +5600,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M18" t="n">
-        <v>936.2207783851894</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N18" t="n">
-        <v>1809.878870496807</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="O18" t="n">
         <v>2139.732893541123</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>970.6584502828955</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>895.138129657802</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>735.6434849807119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>574.7326698490315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
         <v>93.2436976906228</v>
@@ -5703,22 +5703,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1383.093855288175</v>
+        <v>1579.776521841699</v>
       </c>
       <c r="U19" t="n">
-        <v>1383.093855288175</v>
+        <v>1296.978374387823</v>
       </c>
       <c r="V19" t="n">
-        <v>1383.093855288175</v>
+        <v>1023.092629327345</v>
       </c>
       <c r="W19" t="n">
-        <v>1383.093855288175</v>
+        <v>744.0229648362191</v>
       </c>
       <c r="X19" t="n">
-        <v>1383.093855288175</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y19" t="n">
-        <v>1158.35815667694</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455811</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C20" t="n">
-        <v>1692.113136769081</v>
+        <v>1949.173628509571</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.251106699488</v>
+        <v>1544.709698602632</v>
       </c>
       <c r="E20" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F20" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G20" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H20" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5785,19 +5785,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="21">
@@ -5846,7 +5846,7 @@
         <v>1402.950983437843</v>
       </c>
       <c r="O21" t="n">
-        <v>1789.888428857139</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="P21" t="n">
         <v>1789.888428857139</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.3830142463817</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>703.2896418080982</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>543.7949971310081</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>382.8841819993276</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>382.8841819993276</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>215.633790924871</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5937,25 +5937,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1436.250826191383</v>
+        <v>1579.776521841699</v>
       </c>
       <c r="U22" t="n">
-        <v>1153.452678737507</v>
+        <v>1296.978374387823</v>
       </c>
       <c r="V22" t="n">
-        <v>1153.452678737507</v>
+        <v>1023.092629327345</v>
       </c>
       <c r="W22" t="n">
-        <v>874.3830142463817</v>
+        <v>744.0229648362191</v>
       </c>
       <c r="X22" t="n">
-        <v>874.3830142463817</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y22" t="n">
-        <v>874.3830142463817</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2549.191389976085</v>
+        <v>2324.444211508952</v>
       </c>
       <c r="C23" t="n">
-        <v>2139.066799289355</v>
+        <v>1914.319620822223</v>
       </c>
       <c r="D23" t="n">
-        <v>1734.602869382415</v>
+        <v>1509.855690915283</v>
       </c>
       <c r="E23" t="n">
-        <v>1320.262653899312</v>
+        <v>1095.51547543218</v>
       </c>
       <c r="F23" t="n">
-        <v>899.2322418529996</v>
+        <v>674.4850633858673</v>
       </c>
       <c r="G23" t="n">
-        <v>490.5039577458317</v>
+        <v>265.7567792786995</v>
       </c>
       <c r="H23" t="n">
         <v>179.5954603735497</v>
@@ -5989,7 +5989,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
         <v>885.5886702674165</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U23" t="n">
-        <v>4494.590496051882</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V23" t="n">
-        <v>4144.752941388363</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W23" t="n">
-        <v>3760.992640523532</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X23" t="n">
-        <v>3360.349242692484</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y23" t="n">
-        <v>2959.412569640574</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N24" t="n">
-        <v>1578.027001052593</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O24" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>308.996436142379</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>308.996436142379</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>308.996436142379</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>308.996436142379</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>308.996436142379</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
         <v>93.2436976906228</v>
@@ -6177,22 +6177,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>1383.093855288175</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U25" t="n">
-        <v>1100.295707834299</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V25" t="n">
-        <v>826.4099627738212</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W25" t="n">
-        <v>547.3402982826956</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X25" t="n">
-        <v>308.996436142379</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y25" t="n">
-        <v>308.996436142379</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455811</v>
+        <v>2140.463105868917</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769081</v>
+        <v>1730.338515182187</v>
       </c>
       <c r="D26" t="n">
-        <v>1648.251106699488</v>
+        <v>1325.874585275247</v>
       </c>
       <c r="E26" t="n">
-        <v>1233.910891216385</v>
+        <v>911.5343697921442</v>
       </c>
       <c r="F26" t="n">
-        <v>812.8804791700727</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="G26" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H26" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6268,10 +6268,10 @@
         <v>3314.038978003258</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>2951.620958585316</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2550.684285533406</v>
       </c>
     </row>
     <row r="27">
@@ -6320,13 +6320,13 @@
         <v>1402.950983437843</v>
       </c>
       <c r="O27" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P27" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3920.035659288462</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>3920.035659288462</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>3760.541014611372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>3599.630199479691</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K28" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L28" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M28" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N28" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O28" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P28" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>4662.18488453114</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U28" t="n">
-        <v>4662.18488453114</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V28" t="n">
-        <v>4662.18488453114</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W28" t="n">
-        <v>4383.115220040014</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X28" t="n">
-        <v>4144.771357899697</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y28" t="n">
-        <v>3920.035659288462</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6490,13 +6490,13 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U29" t="n">
-        <v>4304.697325272099</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V29" t="n">
         <v>4058.401178705436</v>
@@ -6542,28 +6542,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C32" t="n">
-        <v>1692.113136769081</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.649206862142</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E32" t="n">
-        <v>873.3089913790386</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F32" t="n">
-        <v>452.2785793327262</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G32" t="n">
         <v>93.2436976906228</v>
@@ -6730,22 +6730,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4354.390727737164</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4097.330235996674</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>3747.492681333154</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N33" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O33" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>692.7936626747511</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>521.7002902364676</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>362.2056455593776</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>201.2948304276971</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
         <v>93.2436976906228</v>
@@ -6888,22 +6888,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U34" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V34" t="n">
-        <v>1622.642594311473</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W34" t="n">
-        <v>1343.572929820347</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X34" t="n">
-        <v>1105.229067680031</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y34" t="n">
-        <v>880.4933690687955</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2462.839627293158</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C35" t="n">
-        <v>2052.715036606428</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D35" t="n">
-        <v>1648.251106699488</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E35" t="n">
-        <v>1233.910891216385</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F35" t="n">
-        <v>812.8804791700727</v>
+        <v>809.7661385917668</v>
       </c>
       <c r="G35" t="n">
-        <v>404.1521950629048</v>
+        <v>401.0378544845989</v>
       </c>
       <c r="H35" t="n">
         <v>93.2436976906228</v>
@@ -6970,19 +6970,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="U35" t="n">
-        <v>4408.238733368956</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V35" t="n">
-        <v>4058.401178705436</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W35" t="n">
-        <v>3674.640877840605</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X35" t="n">
-        <v>3273.997480009557</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y35" t="n">
-        <v>2873.060806957647</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C36" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D36" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E36" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F36" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G36" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H36" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I36" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>2615.69568868064</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>2615.69568868064</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M36" t="n">
-        <v>3458.672769375206</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N36" t="n">
-        <v>4332.330861486824</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O36" t="n">
-        <v>4662.18488453114</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P36" t="n">
-        <v>4662.18488453114</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S36" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T36" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U36" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V36" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W36" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X36" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y36" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>607.5209443501507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>607.5209443501507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>448.0262996730607</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>448.0262996730607</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
         <v>93.2436976906228</v>
@@ -7119,28 +7119,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1537.369875986873</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U37" t="n">
-        <v>1537.369875986873</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V37" t="n">
-        <v>1537.369875986873</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W37" t="n">
-        <v>1258.300211495747</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X37" t="n">
-        <v>1019.95634935543</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y37" t="n">
-        <v>795.220650744195</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C38" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D38" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E38" t="n">
-        <v>1287.649206862142</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
         <v>347.4291691583771</v>
@@ -7204,22 +7204,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>423.0977207349383</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M39" t="n">
-        <v>1266.074801429505</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N39" t="n">
-        <v>2139.732893541123</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q39" t="n">
         <v>2139.732893541123</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>837.543623783007</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C40" t="n">
-        <v>837.543623783007</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D40" t="n">
-        <v>837.543623783007</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7356,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>1111.429368843485</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V40" t="n">
-        <v>837.543623783007</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W40" t="n">
-        <v>837.543623783007</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X40" t="n">
-        <v>837.543623783007</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y40" t="n">
-        <v>837.543623783007</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2238.282892603803</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C41" t="n">
-        <v>1828.158301917073</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D41" t="n">
-        <v>1423.694372010133</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E41" t="n">
-        <v>1009.35415652703</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F41" t="n">
-        <v>588.3237444807176</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G41" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H41" t="n">
         <v>179.5954603735497</v>
@@ -7441,22 +7441,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U41" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V41" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W41" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X41" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y41" t="n">
-        <v>2648.504072268292</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="42">
@@ -7493,25 +7493,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>874.0699105066985</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M42" t="n">
-        <v>874.0699105066985</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N42" t="n">
-        <v>874.0699105066985</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O42" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3624.284820157343</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C43" t="n">
-        <v>3453.19144771906</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D43" t="n">
-        <v>3293.69680304197</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>4475.79311641105</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>4236.244377387751</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U43" t="n">
-        <v>3953.446229933875</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V43" t="n">
-        <v>3679.560484873397</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W43" t="n">
-        <v>3624.284820157343</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X43" t="n">
-        <v>3624.284820157343</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y43" t="n">
-        <v>3624.284820157343</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C44" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D44" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E44" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F44" t="n">
-        <v>873.3089913790386</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G44" t="n">
-        <v>464.5807072718708</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H44" t="n">
-        <v>153.6722098995888</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
         <v>885.5886702674165</v>
@@ -7675,25 +7675,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T44" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U44" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V44" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W44" t="n">
-        <v>3314.038978003258</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X44" t="n">
-        <v>2913.395580172211</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y44" t="n">
-        <v>2512.458907120301</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="45">
@@ -7730,25 +7730,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L45" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M45" t="n">
-        <v>562.1177108836107</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="N45" t="n">
-        <v>1435.775802995229</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="O45" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P45" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R45" t="n">
         <v>2139.732893541123</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>227.5827896484517</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C46" t="n">
-        <v>227.5827896484517</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D46" t="n">
-        <v>227.5827896484517</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E46" t="n">
-        <v>227.5827896484517</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F46" t="n">
-        <v>227.5827896484517</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
         <v>93.2436976906228</v>
@@ -7833,25 +7833,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>1196.702087168085</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U46" t="n">
-        <v>913.9039397142094</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V46" t="n">
-        <v>640.0181946537314</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W46" t="n">
-        <v>640.0181946537314</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X46" t="n">
-        <v>640.0181946537314</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y46" t="n">
-        <v>415.2824960424961</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
         <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>228.5110173896169</v>
       </c>
       <c r="O2" t="n">
-        <v>553.1935596277625</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8057,25 +8057,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>562.8045877599699</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>236.9512395019906</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
         <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
         <v>617.5489684328704</v>
@@ -8227,10 +8227,10 @@
         <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>552.9160747585987</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
         <v>93.64936328088416</v>
@@ -8239,7 +8239,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8300,22 +8300,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>265.3595799407153</v>
       </c>
       <c r="M6" t="n">
-        <v>98.12401665379664</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
         <v>59.00019910540541</v>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>531.8357165796326</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
         <v>815.2746908024792</v>
@@ -8470,13 +8470,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>628.1510783507341</v>
+        <v>311.4682568862063</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476414</v>
       </c>
       <c r="M9" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8707,13 +8707,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>628.1510783507342</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,25 +8768,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>172.3167548573611</v>
       </c>
       <c r="K12" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -9005,31 +9005,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>605.6544519663084</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>57.55791802780939</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9175,7 +9175,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N17" t="n">
-        <v>853.701196452193</v>
+        <v>853.7011964521931</v>
       </c>
       <c r="O17" t="n">
         <v>743.321953824879</v>
@@ -9248,16 +9248,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>390.9373608629449</v>
+        <v>605.6544519663084</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
@@ -9424,7 +9424,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9494,10 +9494,10 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>448.5973834639358</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>445.1055394667395</v>
       </c>
       <c r="Q21" t="n">
         <v>410.0708656603775</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>701.4825071992079</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>57.751479</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P24" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9968,7 +9968,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>448.5973834639358</v>
+        <v>418.7392830976428</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
@@ -9977,7 +9977,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
         <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>387.4455168657486</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>390.9373608629454</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,28 +10901,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>389.300405673794</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
         <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>445.1055394667395</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11065,7 +11065,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
-        <v>815.2746908024794</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
         <v>877.4504173780091</v>
@@ -11077,7 +11077,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>628.1510783507341</v>
+        <v>628.1510783507342</v>
       </c>
       <c r="Q41" t="n">
         <v>414.4388617681339</v>
@@ -11141,10 +11141,10 @@
         <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>650.0674079052355</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
@@ -11153,16 +11153,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11378,28 +11378,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>713.8858861212706</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>381.3932644057257</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>201.6446988949099</v>
       </c>
       <c r="F2" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,13 +22597,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>114.5484705942793</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22713,19 +22713,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
@@ -22761,19 +22761,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>4.874559219806486</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>204.7927346726632</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
@@ -22804,7 +22804,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,19 +22834,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>192.0073665696474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
@@ -22941,13 +22941,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
         <v>159.3017069803637</v>
@@ -22989,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -23001,16 +23001,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>56.21808542220074</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>193.4209809967736</v>
       </c>
     </row>
     <row r="8">
@@ -23032,10 +23032,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>302.8867921229245</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23071,19 +23071,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>7.275930605691769</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
@@ -23196,10 +23196,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>82.68617307340605</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,13 +23226,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>194.7158398879886</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -23244,10 +23244,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>49.19646844041395</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>36.3651580272259</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
         <v>169.3824387139007</v>
@@ -23436,7 +23436,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>87.41008369958246</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>193.4209809967733</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23506,10 +23506,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>37.84312462897441</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23551,13 +23551,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>187.9942390719858</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>8.893130557884461</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="17">
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>187.9942390719856</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>94.61732129505808</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -23943,19 +23943,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>194.7158398879884</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23974,10 +23974,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>187.9942390719857</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>142.1277737774093</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>194.7158398879884</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>222.4997066824609</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>100.0940567390713</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -24417,7 +24417,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>37.84312462897429</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>129.680898419834</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,13 +24654,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V29" t="n">
-        <v>102.5059940158881</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>49.19646844041395</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>56.01419322081109</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>165.577887163712</v>
@@ -25128,13 +25128,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="35">
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>3.08319717252283</v>
       </c>
       <c r="I35" t="n">
         <v>85.48824505609757</v>
@@ -25210,7 +25210,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>3.083197172522915</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>125.4393064742111</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
         <v>115.1825854367171</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25399,10 +25399,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>32.28731256679839</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,10 +25444,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>137.0114616263634</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -25557,19 +25557,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>14.30144802244516</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>194.7158398879883</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,10 +25681,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>134.6847134965116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25788,13 +25788,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
@@ -25836,7 +25836,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>221.5560597773213</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>223.0676163851324</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25876,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>25.66401796922125</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
@@ -26037,7 +26037,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>32.58218612546142</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
@@ -26073,7 +26073,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>745305.8396899565</v>
+        <v>745305.8396899559</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>783030.6520654112</v>
+        <v>783030.6520654114</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>783030.6520654112</v>
+        <v>783030.6520654114</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>783030.6520654113</v>
+        <v>783030.6520654116</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>783030.6520654113</v>
+        <v>783030.6520654114</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>783030.6520654113</v>
+        <v>783030.6520654116</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>783030.6520654112</v>
+        <v>783030.6520654116</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>783030.6520654113</v>
+        <v>783030.6520654116</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>190259.0141861052</v>
       </c>
       <c r="C2" t="n">
-        <v>190259.0141861052</v>
+        <v>190259.0141861053</v>
       </c>
       <c r="D2" t="n">
-        <v>275697.497415602</v>
+        <v>275697.4974156017</v>
       </c>
       <c r="E2" t="n">
         <v>289648.6675350938</v>
@@ -26328,34 +26328,34 @@
         <v>289648.6675350937</v>
       </c>
       <c r="G2" t="n">
-        <v>289648.6675350936</v>
+        <v>289648.667535094</v>
       </c>
       <c r="H2" t="n">
+        <v>289648.6675350937</v>
+      </c>
+      <c r="I2" t="n">
         <v>289648.6675350938</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>289648.6675350937</v>
+      </c>
+      <c r="K2" t="n">
+        <v>289648.6675350938</v>
+      </c>
+      <c r="L2" t="n">
+        <v>289648.6675350938</v>
+      </c>
+      <c r="M2" t="n">
+        <v>289648.6675350937</v>
+      </c>
+      <c r="N2" t="n">
+        <v>289648.6675350938</v>
+      </c>
+      <c r="O2" t="n">
         <v>289648.6675350939</v>
       </c>
-      <c r="J2" t="n">
+      <c r="P2" t="n">
         <v>289648.6675350938</v>
-      </c>
-      <c r="K2" t="n">
-        <v>289648.6675350937</v>
-      </c>
-      <c r="L2" t="n">
-        <v>289648.6675350937</v>
-      </c>
-      <c r="M2" t="n">
-        <v>289648.6675350938</v>
-      </c>
-      <c r="N2" t="n">
-        <v>289648.6675350937</v>
-      </c>
-      <c r="O2" t="n">
-        <v>289648.6675350938</v>
-      </c>
-      <c r="P2" t="n">
-        <v>289648.6675350937</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>171827.4689100689</v>
+        <v>171827.4689100685</v>
       </c>
       <c r="E3" t="n">
-        <v>26968.95418093387</v>
+        <v>26968.95418093424</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>139999.3108647531</v>
+        <v>139999.3108647527</v>
       </c>
       <c r="M3" t="n">
-        <v>22509.26477404713</v>
+        <v>22509.26477404744</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>39061.35498003942</v>
       </c>
       <c r="C4" t="n">
-        <v>39061.35498003941</v>
+        <v>39061.35498003942</v>
       </c>
       <c r="D4" t="n">
-        <v>56757.52077494588</v>
+        <v>56757.52077494584</v>
       </c>
       <c r="E4" t="n">
         <v>59647.11115782197</v>
@@ -26432,7 +26432,7 @@
         <v>59647.11115782197</v>
       </c>
       <c r="G4" t="n">
-        <v>59647.11115782197</v>
+        <v>59647.11115782198</v>
       </c>
       <c r="H4" t="n">
         <v>59647.11115782197</v>
@@ -26444,19 +26444,19 @@
         <v>59647.11115782197</v>
       </c>
       <c r="K4" t="n">
+        <v>59647.11115782198</v>
+      </c>
+      <c r="L4" t="n">
         <v>59647.11115782197</v>
-      </c>
-      <c r="L4" t="n">
-        <v>59647.11115782198</v>
       </c>
       <c r="M4" t="n">
         <v>59647.11115782197</v>
       </c>
       <c r="N4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="O4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="P4" t="n">
         <v>59647.11115782197</v>
@@ -26475,7 +26475,7 @@
         <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>99001.07135520034</v>
+        <v>99001.07135520026</v>
       </c>
       <c r="E5" t="n">
         <v>70865.21024487332</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-89126.9157655458</v>
+        <v>-89804.44462493986</v>
       </c>
       <c r="C6" t="n">
-        <v>85828.59412756827</v>
+        <v>85151.06526817428</v>
       </c>
       <c r="D6" t="n">
-        <v>-51888.5636246131</v>
+        <v>-52138.90006785945</v>
       </c>
       <c r="E6" t="n">
-        <v>132167.3919514646</v>
+        <v>131986.8113588152</v>
       </c>
       <c r="F6" t="n">
-        <v>159136.3461323985</v>
+        <v>158955.7655397494</v>
       </c>
       <c r="G6" t="n">
-        <v>159136.3461323984</v>
+        <v>158955.7655397496</v>
       </c>
       <c r="H6" t="n">
-        <v>159136.3461323985</v>
+        <v>158955.7655397494</v>
       </c>
       <c r="I6" t="n">
-        <v>159136.3461323986</v>
+        <v>158955.7655397494</v>
       </c>
       <c r="J6" t="n">
-        <v>22541.54532650352</v>
+        <v>22360.9647338543</v>
       </c>
       <c r="K6" t="n">
-        <v>159136.3461323985</v>
+        <v>158955.7655397494</v>
       </c>
       <c r="L6" t="n">
-        <v>19137.03526764538</v>
+        <v>18956.45467499665</v>
       </c>
       <c r="M6" t="n">
-        <v>136627.0813583515</v>
+        <v>136446.500765702</v>
       </c>
       <c r="N6" t="n">
-        <v>159136.3461323984</v>
+        <v>158955.7655397495</v>
       </c>
       <c r="O6" t="n">
-        <v>159136.3461323985</v>
+        <v>158955.7655397496</v>
       </c>
       <c r="P6" t="n">
-        <v>159136.3461323985</v>
+        <v>158955.7655397494</v>
       </c>
     </row>
   </sheetData>
@@ -26795,7 +26795,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>1075.221568342111</v>
+        <v>1075.22156834211</v>
       </c>
       <c r="E4" t="n">
         <v>1165.546221132785</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>553.1579979720855</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="E4" t="n">
-        <v>90.32465279067401</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>553.1579979720855</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>90.32465279067401</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>553.1579979720855</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>90.32465279067401</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -34701,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>135.5987266329976</v>
       </c>
       <c r="O2" t="n">
-        <v>460.0037840019794</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>506.6900639491208</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>179.3869557635732</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
@@ -34935,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
         <v>522.0635703700256</v>
@@ -34947,10 +34947,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>460.0037840019794</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -34959,7 +34959,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35020,22 +35020,22 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>209.2450561298663</v>
       </c>
       <c r="M6" t="n">
-        <v>40.55973291537923</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>442.6993269064155</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
         <v>719.7892927396343</v>
@@ -35190,13 +35190,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>534.50171506985</v>
+        <v>217.8188936053221</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>461.3739449367923</v>
       </c>
       <c r="M9" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35427,13 +35427,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>120.9475160573611</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>547.9029729663084</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>3.298283025005639</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35895,7 +35895,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N17" t="n">
-        <v>760.7889056955737</v>
+        <v>760.7889056955738</v>
       </c>
       <c r="O17" t="n">
         <v>650.1321781990958</v>
@@ -35968,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>333.1858818629449</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36144,7 +36144,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36214,10 +36214,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>390.8459044639358</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>353.3782471555388</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>648.289113805458</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P24" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36688,7 +36688,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>390.8459044639358</v>
+        <v>360.9878040976428</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>333.1858818629449</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>333.1858818629454</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>333.1858818629449</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>390.8459044639358</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
-        <v>719.7892927396346</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
         <v>784.1601929209636</v>
@@ -37797,7 +37797,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>534.50171506985</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q41" t="n">
         <v>324.4050573689818</v>
@@ -37861,10 +37861,10 @@
         <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>593.9528840943865</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37873,16 +37873,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>656.1344071212706</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
